--- a/2. 연구사업(2023년)/6. 분석결과/data_raw/연구사업 데이터.xlsx
+++ b/2. 연구사업(2023년)/6. 분석결과/data_raw/연구사업 데이터.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\Study\2. 연구사업(2023년)\6. 분석결과\data_raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1885,7 +1885,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2058,6 +2058,14 @@
       <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -2543,7 +2551,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2558,6 +2566,9 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -2882,8 +2893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CF170"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A141" workbookViewId="0">
-      <selection activeCell="E163" sqref="E163"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BD34" sqref="BD34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2896,61 +2907,63 @@
     <col min="6" max="6" width="23.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="13" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="9.75" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="8" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8" bestFit="1" customWidth="1"/>
-    <col min="17" max="22" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="4.75" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="17.625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="15" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="8" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="24" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="4.75" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="4.75" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="3.125" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="4.75" bestFit="1" customWidth="1"/>
-    <col min="49" max="50" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8" hidden="1" customWidth="1"/>
+    <col min="17" max="22" width="6.375" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="13.125" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="9.625" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="6.375" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="4.75" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="6.375" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="9.625" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="11.375" hidden="1" customWidth="1"/>
+    <col min="30" max="30" width="6.375" hidden="1" customWidth="1"/>
+    <col min="31" max="31" width="17.625" hidden="1" customWidth="1"/>
+    <col min="32" max="32" width="16.75" hidden="1" customWidth="1"/>
+    <col min="33" max="33" width="15" hidden="1" customWidth="1"/>
+    <col min="34" max="34" width="11.375" hidden="1" customWidth="1"/>
+    <col min="35" max="36" width="6.375" hidden="1" customWidth="1"/>
+    <col min="37" max="37" width="8" hidden="1" customWidth="1"/>
+    <col min="38" max="38" width="6.375" hidden="1" customWidth="1"/>
+    <col min="39" max="39" width="16.25" hidden="1" customWidth="1"/>
+    <col min="40" max="40" width="9.625" hidden="1" customWidth="1"/>
+    <col min="41" max="41" width="24" hidden="1" customWidth="1"/>
+    <col min="42" max="42" width="13.125" hidden="1" customWidth="1"/>
+    <col min="43" max="43" width="9.625" hidden="1" customWidth="1"/>
+    <col min="44" max="44" width="4.75" hidden="1" customWidth="1"/>
+    <col min="45" max="45" width="17.5" hidden="1" customWidth="1"/>
+    <col min="46" max="46" width="4.75" hidden="1" customWidth="1"/>
+    <col min="47" max="47" width="3.125" hidden="1" customWidth="1"/>
+    <col min="48" max="48" width="4.75" hidden="1" customWidth="1"/>
+    <col min="49" max="49" width="6.375" hidden="1" customWidth="1"/>
+    <col min="50" max="50" width="6.375" bestFit="1" customWidth="1"/>
     <col min="51" max="51" width="8" bestFit="1" customWidth="1"/>
     <col min="52" max="52" width="9.625" bestFit="1" customWidth="1"/>
     <col min="53" max="54" width="6.375" bestFit="1" customWidth="1"/>
     <col min="55" max="55" width="5.375" bestFit="1" customWidth="1"/>
     <col min="56" max="57" width="8" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="59" max="60" width="18.625" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="20.375" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="15" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="64" max="65" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="15" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="8" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="24" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="8" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="4.75" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="16.75" hidden="1" customWidth="1"/>
+    <col min="59" max="60" width="18.625" hidden="1" customWidth="1"/>
+    <col min="61" max="61" width="20.375" hidden="1" customWidth="1"/>
+    <col min="62" max="62" width="15" hidden="1" customWidth="1"/>
+    <col min="63" max="63" width="13.125" hidden="1" customWidth="1"/>
+    <col min="64" max="65" width="11.375" hidden="1" customWidth="1"/>
+    <col min="66" max="66" width="15" hidden="1" customWidth="1"/>
+    <col min="67" max="67" width="6.375" hidden="1" customWidth="1"/>
+    <col min="68" max="68" width="8" hidden="1" customWidth="1"/>
+    <col min="69" max="69" width="24" hidden="1" customWidth="1"/>
+    <col min="70" max="70" width="6.375" hidden="1" customWidth="1"/>
+    <col min="71" max="71" width="8" hidden="1" customWidth="1"/>
+    <col min="72" max="72" width="6.375" hidden="1" customWidth="1"/>
+    <col min="73" max="73" width="11.375" hidden="1" customWidth="1"/>
+    <col min="74" max="74" width="4.75" hidden="1" customWidth="1"/>
+    <col min="75" max="75" width="7.125" hidden="1" customWidth="1"/>
     <col min="76" max="76" width="6.375" bestFit="1" customWidth="1"/>
     <col min="77" max="77" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="78" max="79" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="78" max="79" width="16.75" hidden="1" customWidth="1"/>
     <col min="80" max="82" width="8" bestFit="1" customWidth="1"/>
     <col min="83" max="84" width="11.375" bestFit="1" customWidth="1"/>
   </cols>
@@ -3801,7 +3814,7 @@
       <c r="BW4" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="BX4" s="1" t="s">
+      <c r="BX4" s="5" t="s">
         <v>129</v>
       </c>
       <c r="BY4" s="1" t="s">
@@ -4229,7 +4242,7 @@
         <v>90</v>
       </c>
       <c r="CE6" s="1"/>
-      <c r="CF6" s="1" t="s">
+      <c r="CF6" s="5" t="s">
         <v>151</v>
       </c>
     </row>
@@ -4563,7 +4576,7 @@
       <c r="AW8" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="AX8" s="1" t="s">
+      <c r="AX8" s="5" t="s">
         <v>162</v>
       </c>
       <c r="AY8" s="1" t="s">
@@ -4845,7 +4858,7 @@
         <v>90</v>
       </c>
       <c r="CE9" s="1"/>
-      <c r="CF9" s="1" t="s">
+      <c r="CF9" s="5" t="s">
         <v>176</v>
       </c>
     </row>
@@ -5051,7 +5064,7 @@
         <v>90</v>
       </c>
       <c r="CE10" s="1"/>
-      <c r="CF10" s="1" t="s">
+      <c r="CF10" s="5" t="s">
         <v>183</v>
       </c>
     </row>
@@ -6667,7 +6680,7 @@
       <c r="BW18" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="BX18" s="1" t="s">
+      <c r="BX18" s="5" t="s">
         <v>269</v>
       </c>
       <c r="BY18" s="1" t="s">
@@ -7236,7 +7249,7 @@
       <c r="BB21" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="BC21" s="1" t="s">
+      <c r="BC21" s="5" t="s">
         <v>298</v>
       </c>
       <c r="BD21" s="1" t="s">
@@ -8303,7 +8316,7 @@
       <c r="BW26" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="BX26" s="1" t="s">
+      <c r="BX26" s="5" t="s">
         <v>348</v>
       </c>
       <c r="BY26" s="1" t="s">
@@ -8509,7 +8522,7 @@
       <c r="BW27" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="BX27" s="1" t="s">
+      <c r="BX27" s="5" t="s">
         <v>358</v>
       </c>
       <c r="BY27" s="1" t="s">
@@ -8517,7 +8530,7 @@
       </c>
       <c r="BZ27" s="1"/>
       <c r="CA27" s="1"/>
-      <c r="CB27" s="1" t="s">
+      <c r="CB27" s="5" t="s">
         <v>359</v>
       </c>
       <c r="CC27" s="1" t="s">
@@ -8566,7 +8579,7 @@
         <v>89</v>
       </c>
       <c r="N28" s="1"/>
-      <c r="O28" s="1" t="s">
+      <c r="O28" s="5" t="s">
         <v>363</v>
       </c>
       <c r="P28" s="1"/>
@@ -9070,7 +9083,7 @@
       <c r="AX30" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="AY30" s="1" t="s">
+      <c r="AY30" s="5" t="s">
         <v>386</v>
       </c>
       <c r="AZ30" s="1"/>

--- a/2. 연구사업(2023년)/6. 분석결과/data_raw/연구사업 데이터.xlsx
+++ b/2. 연구사업(2023년)/6. 분석결과/data_raw/연구사업 데이터.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\Study\2. 연구사업(2023년)\6. 분석결과\data_raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\Study\2. 연구사업(2023년)\6. 분석결과\data_raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50A498B5-B792-4B65-9DE3-B677C2F3EFD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="지하수보고양식" sheetId="1" r:id="rId1"/>
@@ -1884,7 +1885,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2890,11 +2891,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CF170"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BD34" sqref="BD34"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BX4" activeCellId="2" sqref="F26:BX26 F18:BX18 F4:BX4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
